--- a/xls/dialog.xlsx
+++ b/xls/dialog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,7 +30,12 @@
 我是這村子唯一的鐵匠…
 這邊有許多武器
 想要買什麼?",
-"B":["1.交易/trade","2.離開/exit"]</t>
+"B":["1.交易/trade","2.任務/goto 1","3.離開/exit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"殺死野狼",
+"B":["1.接受/quest q01","2.離開/exit"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,12 +386,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="2" max="2" width="112.77734375" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -405,8 +410,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="B3" s="1"/>
+    <row r="3" spans="1:2" ht="32.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/xls/dialog.xlsx
+++ b/xls/dialog.xlsx
@@ -34,7 +34,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"A":"殺死野狼",
+    <t>"A":"殺死半獸人",
 "B":["1.接受/quest q01","2.離開/exit"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -386,7 +386,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>

--- a/xls/dialog.xlsx
+++ b/xls/dialog.xlsx
@@ -16,13 +16,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>smith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q01_open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q01_finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"...",
+"B":["離開/exit"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -30,12 +47,21 @@
 我是這村子唯一的鐵匠…
 這邊有許多武器
 想要買什麼?",
-"B":["1.交易/trade","2.任務/goto 1","3.離開/exit"]</t>
+"B":["交易/trade","任務/goto [quest=q01]","離開/exit"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>"A":"殺死半獸人",
-"B":["1.接受/quest q01","2.離開/exit"]</t>
+"B":["接受/quest q01","離開/exit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"...",
+"B":["任務完成了/goto none;close q01;set quest none"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,14 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
     <col min="2" max="2" width="54.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -407,15 +434,39 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="32.4">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="32.4">
+      <c r="A4" t="s">
         <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="32.4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="32.4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/xls/dialog.xlsx
+++ b/xls/dialog.xlsx
@@ -22,10 +22,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>smith</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>q01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,6 +58,10 @@
   <si>
     <t>"A":"...",
 "B":["任務完成了/goto none;close q01;set quest none"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eldon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,7 +412,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -426,7 +426,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="81">
@@ -434,39 +434,39 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="32.4">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32.4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="32.4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/xls/dialog.xlsx
+++ b/xls/dialog.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="musk" sheetId="1" r:id="rId1"/>
+    <sheet name="xi" sheetId="2" r:id="rId2"/>
+    <sheet name="macron" sheetId="3" r:id="rId3"/>
+    <sheet name="trump" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,7 +62,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eldon</t>
+    <t>musk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"...",
+"B":["離開/exit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"...",
+"B":["任務完成了/goto none;close q01;set quest none"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"你好
+我是這村子唯一的屠夫…
+想要買什麼?",
+"B":["交易/trade","任務/goto [quest=q01]","離開/exit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"你好
+我是行商…想要買什麼?",
+"B":["交易/trade","任務/goto [quest=q01]","離開/exit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>macron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"你好
+歡迎光臨...",
+"B":["交易/trade","任務/goto [quest=q01]","離開/exit"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -478,12 +520,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="64.8">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="32.4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="32.4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="32.4">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="32.4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -492,14 +589,137 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="48.6">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="32.4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="32.4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="32.4">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="32.4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="48.6">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="32.4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="32.4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="32.4">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="32.4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/xls/dialog.xlsx
+++ b/xls/dialog.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="musk" sheetId="1" r:id="rId1"/>
     <sheet name="xi" sheetId="2" r:id="rId2"/>
     <sheet name="macron" sheetId="3" r:id="rId3"/>
     <sheet name="trump" sheetId="4" r:id="rId4"/>
+    <sheet name="karen" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="20">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +104,15 @@
   <si>
     <t>"A":"你好
 歡迎光臨...",
+"B":["交易/trade","任務/goto [quest=q01]","離開/exit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>karen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"你好...",
 "B":["交易/trade","任務/goto [quest=q01]","離開/exit"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -660,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -722,4 +732,72 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="32.4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="32.4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="32.4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="32.4">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="32.4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/xls/dialog.xlsx
+++ b/xls/dialog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="musk" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="macron" sheetId="3" r:id="rId3"/>
     <sheet name="trump" sheetId="4" r:id="rId4"/>
     <sheet name="karen" sheetId="5" r:id="rId5"/>
+    <sheet name="melanie" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +115,25 @@
   <si>
     <t>"A":"你好...",
 "B":["交易/trade","任務/goto [quest=q01]","離開/exit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"你好...",
+"B":["交易/trade","任務/goto [quest=q01]","離開/exit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"...",
+"B":["離開/exit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"...",
+"B":["任務完成了/goto none;close q01;set quest none"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melanie</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -800,4 +820,72 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="53.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="32.4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="32.4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="32.4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="32.4">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="32.4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/xls/dialog.xlsx
+++ b/xls/dialog.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868"/>
   </bookViews>
   <sheets>
-    <sheet name="musk" sheetId="1" r:id="rId1"/>
+    <sheet name="musk" sheetId="7" r:id="rId1"/>
     <sheet name="xi" sheetId="2" r:id="rId2"/>
     <sheet name="macron" sheetId="3" r:id="rId3"/>
     <sheet name="trump" sheetId="4" r:id="rId4"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,19 @@
   </si>
   <si>
     <t>melanie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"type":"quest",
+"start":{
+"A":"殺死半獸人",
+"B":["接受/quest q01","離開/exit"]},
+"open":{
+"A":"...",
+"B":["離開/exit"]},
+"done":{
+"A":"...",
+"B":["任務完成了/goto none;close q01;set quest none"]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,14 +496,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="54.6640625" customWidth="1"/>
+    <col min="2" max="2" width="63.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -509,12 +521,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="32.4">
+    <row r="3" spans="1:2" ht="162">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32.4">
@@ -544,7 +556,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -553,7 +564,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -826,7 +837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>

--- a/xls/dialog.xlsx
+++ b/xls/dialog.xlsx
@@ -144,7 +144,7 @@
 "open":{
 "A":"...",
 "B":["離開/exit"]},
-"done":{
+"finish":{
 "A":"...",
 "B":["任務完成了/goto none;close q01;set quest none"]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -497,7 +497,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>

--- a/xls/dialog.xlsx
+++ b/xls/dialog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="musk" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,14 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"A":"你好
-我是這村子唯一的鐵匠…
-這邊有許多武器
-想要買什麼?",
-"B":["交易/trade","任務/goto [quest=q01]","離開/exit"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"A":"殺死半獸人",
 "B":["接受/quest q01","離開/exit"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,19 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"A":"你好
-我是這村子唯一的屠夫…
-想要買什麼?",
-"B":["交易/trade","任務/goto [quest=q01]","離開/exit"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"A":"你好
-我是行商…想要買什麼?",
-"B":["交易/trade","任務/goto [quest=q01]","離開/exit"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>macron</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,23 +82,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"A":"你好
-歡迎光臨...",
-"B":["交易/trade","任務/goto [quest=q01]","離開/exit"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>karen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"A":"你好...",
-"B":["交易/trade","任務/goto [quest=q01]","離開/exit"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"A":"你好...",
-"B":["交易/trade","任務/goto [quest=q01]","離開/exit"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -147,6 +110,38 @@
 "finish":{
 "A":"...",
 "B":["任務完成了/goto none;close q01;set quest none"]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"你好
+我是這村子唯一的鐵匠…
+這邊有許多武器
+想要買什麼?",
+"B":["交易/trade","(#quest!=none)任務/goto #quest:q01","離開/exit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"你好
+我是這村子唯一的屠夫…
+想要買什麼?",
+"B":["交易/trade","(#quest!=none)任務/goto #quest:q01","離開/exit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"你好
+我是行商…想要買什麼?",
+"B":["交易/trade","(#quest!=none)任務/goto #quest:q01","離開/exit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"你好
+歡迎光臨...",
+"B":["交易/trade","(#quest!=none)任務/goto #quest:q01","離開/exit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"你好...",
+"B":["交易/trade","(#quest!=none)任務/goto #quest:q01","離開/exit"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -510,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="81">
@@ -518,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="162">
@@ -526,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32.4">
@@ -542,12 +537,12 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="32.4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -564,13 +559,13 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="54.6640625" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -578,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="64.8">
@@ -586,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="32.4">
@@ -594,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32.4">
@@ -602,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.4">
@@ -610,15 +605,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="32.4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -633,13 +628,13 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="54.6640625" customWidth="1"/>
+    <col min="2" max="2" width="65.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -647,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="48.6">
@@ -655,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="32.4">
@@ -663,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32.4">
@@ -671,7 +666,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.4">
@@ -679,15 +674,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="32.4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -702,13 +697,13 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="54.6640625" customWidth="1"/>
+    <col min="2" max="2" width="73.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -716,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="48.6">
@@ -724,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="32.4">
@@ -732,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32.4">
@@ -740,7 +735,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.4">
@@ -748,15 +743,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="32.4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -770,13 +765,13 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="54.6640625" customWidth="1"/>
+    <col min="2" max="2" width="75.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -784,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="32.4">
@@ -792,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="32.4">
@@ -800,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32.4">
@@ -808,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.4">
@@ -816,15 +811,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="32.4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -837,14 +832,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="53.77734375" customWidth="1"/>
+    <col min="2" max="2" width="78.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -852,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="32.4">
@@ -860,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="32.4">
@@ -868,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32.4">
@@ -876,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.4">
@@ -884,15 +879,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="32.4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/xls/dialog.xlsx
+++ b/xls/dialog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="musk" sheetId="7" r:id="rId1"/>
@@ -19,21 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>q01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>q01_open</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>q01_finish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -42,17 +30,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"A":"殺死半獸人",
-"B":["接受/quest q01","離開/exit"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"A":"...",
-"B":["任務完成了/goto none;close q01;set quest none"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -65,11 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"A":"...",
-"B":["任務完成了/goto none;close q01;set quest none"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,57 +64,184 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>melanie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"A":"...",
-"B":["任務完成了/goto none;close q01;set quest none"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>melanie</t>
+"B":["任務完成了/goto none;close musk_01;set quest none"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"你好
+我是這村子唯一的鐵匠…
+這邊有許多武器
+想要買什麼?",
+"B":["交易/trade","(#quest!=none)任務/goto #quest:musk_01","離開/exit"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>"type":"quest",
 "start":{
 "A":"殺死半獸人",
-"B":["接受/quest q01","離開/exit"]},
+"B":["接受/quest musk_01","離開/exit"]},
 "open":{
 "A":"...",
 "B":["離開/exit"]},
 "finish":{
 "A":"...",
-"B":["任務完成了/goto none;close q01;set quest none"]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"A":"你好
-我是這村子唯一的鐵匠…
-這邊有許多武器
-想要買什麼?",
-"B":["交易/trade","(#quest!=none)任務/goto #quest:q01","離開/exit"]</t>
+"B":["任務完成了/goto none;close musk_01;set quest none"]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>"A":"你好
 我是這村子唯一的屠夫…
 想要買什麼?",
-"B":["交易/trade","(#quest!=none)任務/goto #quest:q01","離開/exit"]</t>
+"B":["交易/trade","(#quest!=none)任務/goto #quest:xi_01","離開/exit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"殺死半獸人",
+"B":["接受/quest xi_01","離開/exit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"...",
+"B":["任務完成了/goto none;close xi_01;set quest none"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>"A":"你好
 我是行商…想要買什麼?",
-"B":["交易/trade","(#quest!=none)任務/goto #quest:q01","離開/exit"]</t>
+"B":["交易/trade","(#quest!=none)任務/goto #quest:macron_01","離開/exit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"殺死半獸人",
+"B":["接受/quest macron_01","離開/exit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"...",
+"B":["任務完成了/goto none;close macron_01;set quest none"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>"A":"你好
 歡迎光臨...",
-"B":["交易/trade","(#quest!=none)任務/goto #quest:q01","離開/exit"]</t>
+"B":["交易/trade","(#quest!=none)任務/goto #quest:trump_01","離開/exit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"殺死半獸人",
+"B":["接受/quest trump_01","離開/exit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"...",
+"B":["任務完成了/goto none;close trump_01;set quest none"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>"A":"你好...",
-"B":["交易/trade","(#quest!=none)任務/goto #quest:q01","離開/exit"]</t>
+"B":["交易/trade","(#quest!=none)任務/goto #quest:karen_01","離開/exit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"殺死半獸人",
+"B":["接受/quest karen_01","離開/exit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"...",
+"B":["任務完成了/goto none;close karen_01;set quest none"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"你好...",
+"B":["交易/trade","(#quest!=none)任務/goto #quest:melanie_01","離開/exit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"...",
+"B":["任務完成了/goto none;close melanie_01;set quest none"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A":"殺死半獸人",
+"B":["接受/quest melanie_01","離開/exit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xi_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xi_01_open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xi_01_finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melanie_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melanie_01_open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melanie_01_finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>karen_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>karen_01_open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>karen_01_finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:trump_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trump_01_open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trump_01_finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>macron_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>macron_01_open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>macron_01_finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>musk_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>musk_01_open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>musk_01_finish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,12 +592,13 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="2" max="2" width="63.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="71" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -505,47 +606,47 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="97.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="162">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32.4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.4">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="32.4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -558,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -573,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="64.8">
@@ -581,39 +682,39 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="32.4">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32.4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.4">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="32.4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -628,13 +729,13 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="65.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="76.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -642,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="48.6">
@@ -650,39 +751,39 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="32.4">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32.4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.4">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="32.4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -697,12 +798,12 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="73.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -711,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="48.6">
@@ -719,39 +820,39 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="32.4">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32.4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.4">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="32.4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -765,12 +866,12 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="75.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -779,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="32.4">
@@ -792,34 +893,34 @@
     </row>
     <row r="3" spans="1:2" ht="32.4">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32.4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.4">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="32.4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -832,13 +933,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="78.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -847,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="32.4">
@@ -855,39 +956,39 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="32.4">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32.4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.4">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="32.4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/xls/dialog.xlsx
+++ b/xls/dialog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="musk" sheetId="7" r:id="rId1"/>
@@ -19,9 +19,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>musk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -30,11 +38,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>musk</t>
+    <t>xi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>macron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>karen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -43,33 +59,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>macron</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>karen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"A":"...",
-"B":["離開/exit"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>melanie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"A":"...",
-"B":["任務完成了/goto none;close musk_01;set quest none"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -234,14 +224,6 @@
   </si>
   <si>
     <t>musk_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>musk_01_open</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>musk_01_finish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -606,47 +588,23 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="97.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="81">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="162">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="32.4">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="32.4">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="32.4">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -659,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -674,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="64.8">
@@ -682,39 +640,39 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="32.4">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32.4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.4">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="32.4">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="48.6">
@@ -751,39 +709,39 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="32.4">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32.4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.4">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="32.4">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +756,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -812,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="48.6">
@@ -820,39 +778,39 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="32.4">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32.4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.4">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="32.4">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -880,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="32.4">
@@ -888,39 +846,39 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="32.4">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32.4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.4">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="32.4">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -933,7 +891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -948,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="32.4">
@@ -956,39 +914,39 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="32.4">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32.4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.4">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="32.4">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
